--- a/outputs-GTDB-r202/g__UBA2856.xlsx
+++ b/outputs-GTDB-r202/g__UBA2856.xlsx
@@ -992,7 +992,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>s__UBA2856 sp902803065</t>
+          <t>s__UBA2856 sp902803065(reject)</t>
         </is>
       </c>
     </row>
